--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846C15BF-E710-4963-8947-A1D2F954D546}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5111,7 +5111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5189,23 +5189,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5216,12 +5214,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -49225,83 +49218,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A172DD6-C11B-4857-88C4-0584815F29E6}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="27.21875" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.21875" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="37"/>
+    <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>1476</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>1477</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>1478</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>1479</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>1480</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="35" t="s">
         <v>1481</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="35" t="s">
         <v>1482</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>1483</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="D2" s="35" t="s">
         <v>1485</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>1486</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>1487</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="35" t="s">
         <v>1488</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="35" t="s">
         <v>1489</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1">
       <c r="A4" s="32" t="s">
@@ -49319,19 +49311,19 @@
       <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="37" t="s">
+      <c r="A5" t="s">
         <v>1492</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>1493</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>3.38</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:10" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
@@ -49347,17 +49339,17 @@
       <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="37" t="s">
+      <c r="A7" t="s">
         <v>1495</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="D7" s="38">
+      <c r="B7" s="36"/>
+      <c r="D7" s="36">
         <v>0.3</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:10" s="32" customFormat="1">
       <c r="A8" s="32" t="s">
@@ -49366,7 +49358,7 @@
       <c r="B8" s="33" t="s">
         <v>1497</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="42">
         <v>505</v>
       </c>
       <c r="E8" s="32">
@@ -49389,31 +49381,31 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="37" t="s">
+      <c r="A9" t="s">
         <v>1498</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>1499</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="37">
         <v>135000</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9">
         <v>97000</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9">
         <v>74600</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9">
         <v>27700</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9">
         <v>49800</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9">
         <v>107000</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9">
         <v>45000</v>
       </c>
     </row>
@@ -49424,54 +49416,54 @@
       <c r="B10" s="33" t="s">
         <v>1501</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>177</v>
       </c>
       <c r="E10" s="32">
         <v>169</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="43">
         <v>162</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="43">
         <v>97.8</v>
       </c>
       <c r="H10" s="32">
         <v>125</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="43">
         <v>167</v>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="43">
         <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="37" t="s">
+      <c r="A11" t="s">
         <v>1502</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>1503</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="38">
         <v>30</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11">
         <v>18</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="38">
         <v>29</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="38">
         <v>30</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11">
         <v>24</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11">
         <v>320</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11">
         <v>52</v>
       </c>
     </row>
@@ -49482,30 +49474,30 @@
       <c r="B12" s="33" t="s">
         <v>1499</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="D12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="37" t="s">
+      <c r="A13" t="s">
         <v>1505</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>1506</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="38">
         <v>11</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13">
         <v>11</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <v>11</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G13" s="38">
         <v>7.5</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13">
         <v>6.25</v>
       </c>
     </row>
@@ -49516,16 +49508,16 @@
       <c r="B14" s="33" t="s">
         <v>1508</v>
       </c>
-      <c r="D14" s="46">
-        <v>562000</v>
+      <c r="D14" s="44">
+        <v>496000</v>
       </c>
       <c r="E14" s="32">
         <v>736000</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="43">
         <v>239000</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="43">
         <v>90000</v>
       </c>
       <c r="H14" s="32">
@@ -49539,31 +49531,31 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="37" t="s">
+      <c r="A15" t="s">
         <v>1509</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="36" t="s">
         <v>1508</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="37">
         <v>210000</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15">
         <v>320000</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="38">
         <v>188000</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="38">
         <v>50000</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15">
         <v>170000</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15">
         <v>250000</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15">
         <v>50000</v>
       </c>
     </row>
@@ -49574,16 +49566,16 @@
       <c r="B16" s="33" t="s">
         <v>1508</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="44">
         <v>11500</v>
       </c>
       <c r="E16" s="32">
         <v>11000</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="43">
         <v>7000</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="43">
         <v>6600</v>
       </c>
       <c r="H16" s="32">
@@ -49591,15 +49583,15 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="37" t="s">
+      <c r="A17" t="s">
         <v>1511</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="36" t="s">
         <v>1508</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="D17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:10" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
@@ -49608,36 +49600,36 @@
       <c r="B18" s="33" t="s">
         <v>1513</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="D18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="37" t="s">
+      <c r="A19" t="s">
         <v>1514</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="36" t="s">
         <v>1491</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="38">
         <v>795.92</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19">
         <v>621</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="38">
         <v>477.1</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="38">
         <v>315</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19">
         <v>438</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="38">
         <v>664.7</v>
       </c>
-      <c r="J19" s="40">
+      <c r="J19" s="38">
         <v>415</v>
       </c>
     </row>
@@ -49648,13 +49640,13 @@
       <c r="B20" s="33" t="s">
         <v>1491</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>540</v>
       </c>
-      <c r="F20" s="45">
+      <c r="F20" s="43">
         <v>331.2</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="43">
         <v>185.5</v>
       </c>
       <c r="H20" s="32">
@@ -49665,28 +49657,28 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="37" t="s">
+      <c r="A21" t="s">
         <v>1516</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="36" t="s">
         <v>1517</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="38">
         <v>360</v>
       </c>
-      <c r="F21" s="40">
+      <c r="F21" s="38">
         <v>111.11</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="38">
         <v>86</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21">
         <v>163.30000000000001</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="38">
         <v>296</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21" s="38">
         <v>153</v>
       </c>
     </row>
@@ -49697,13 +49689,13 @@
       <c r="B22" s="33" t="s">
         <v>1519</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>459</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="43">
         <v>806</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="43">
         <v>398</v>
       </c>
       <c r="J22" s="32">
@@ -49711,19 +49703,19 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="37" t="s">
+      <c r="A23" t="s">
         <v>1520</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="36" t="s">
         <v>1519</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23" s="38">
         <v>216</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="38">
         <v>480</v>
       </c>
-      <c r="G23" s="40">
+      <c r="G23" s="38">
         <v>240</v>
       </c>
     </row>
@@ -49734,10 +49726,10 @@
       <c r="B24" s="33" t="s">
         <v>1519</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="43">
         <v>697</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="43">
         <v>360</v>
       </c>
       <c r="H24" s="32">
@@ -49751,40 +49743,40 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="38"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="B25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="36"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="37" t="s">
+      <c r="A27" t="s">
         <v>1523</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="D27" s="41">
+      <c r="B27" s="36"/>
+      <c r="D27" s="39">
         <v>7776</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27">
         <v>396</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="38">
         <v>384</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="38">
         <v>192</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27">
         <v>106</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27">
         <v>204</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27">
         <v>288</v>
       </c>
     </row>
@@ -49793,7 +49785,7 @@
         <v>1524</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="45" t="s">
         <v>1525</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -49816,14 +49808,14 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="37" t="s">
+      <c r="A29" t="s">
         <v>1532</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="D29" s="37">
+      <c r="B29" s="36"/>
+      <c r="D29">
         <v>21700</v>
       </c>
-      <c r="H29" s="37" t="s">
+      <c r="H29" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -49849,25 +49841,25 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="37" t="s">
+      <c r="A31" t="s">
         <v>1538</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="36" t="s">
         <v>1519</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31">
         <v>4.2</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31">
         <v>4.2</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31">
         <v>3.65</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31">
         <v>4.2</v>
       </c>
     </row>
@@ -49898,25 +49890,25 @@
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="37" t="s">
+      <c r="A33" t="s">
         <v>1540</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="36" t="s">
         <v>1519</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33">
         <v>2.5</v>
       </c>
-      <c r="F33" s="48">
+      <c r="F33">
         <v>2.5</v>
       </c>
-      <c r="G33" s="48">
+      <c r="G33">
         <v>2.5</v>
       </c>
-      <c r="H33" s="48">
+      <c r="H33">
         <v>2.5</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33">
         <v>2.5</v>
       </c>
     </row>
@@ -49930,13 +49922,13 @@
       <c r="D34" s="32">
         <v>5</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="46">
         <v>55.6</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="46">
         <v>43</v>
       </c>
-      <c r="H34" s="49">
+      <c r="H34" s="32">
         <v>161</v>
       </c>
       <c r="I34" s="32">
@@ -49947,30 +49939,30 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="37" t="s">
+      <c r="A35" t="s">
         <v>1542</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="36" t="s">
         <v>1499</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="40">
         <f>D34*D32</f>
         <v>18</v>
       </c>
-      <c r="F35" s="50">
+      <c r="F35" s="38">
         <v>201.8</v>
       </c>
-      <c r="G35" s="42">
+      <c r="G35" s="40">
         <f>G34*G32</f>
         <v>160.38999999999999</v>
       </c>
-      <c r="H35" s="48">
+      <c r="H35">
         <v>515</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35">
         <v>544</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35">
         <v>188.7</v>
       </c>
     </row>
@@ -49984,22 +49976,22 @@
       <c r="D36" s="32">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
       <c r="H36" s="34"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="37" t="s">
+      <c r="A37" t="s">
         <v>1545</v>
       </c>
-      <c r="B37" s="38" t="s">
+      <c r="B37" s="36" t="s">
         <v>1544</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37">
         <v>4.7530000000000001</v>
       </c>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1">
       <c r="A38" s="32" t="s">
@@ -50011,24 +50003,24 @@
       <c r="D38" s="32">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45">
+      <c r="F38" s="43"/>
+      <c r="G38" s="43">
         <v>41</v>
       </c>
       <c r="H38" s="34"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="37" t="s">
+      <c r="A39" t="s">
         <v>1547</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="36" t="s">
         <v>1544</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40">
+      <c r="F39" s="38"/>
+      <c r="G39" s="38">
         <v>55</v>
       </c>
     </row>
@@ -50042,18 +50034,18 @@
       <c r="D40" s="32">
         <v>2.4500000000000002</v>
       </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45">
+      <c r="F40" s="43"/>
+      <c r="G40" s="43">
         <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15">
-      <c r="A41" s="37" t="s">
+      <c r="A41" t="s">
         <v>1549</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="43" t="s">
+      <c r="B41" s="36"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="41" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -50064,10 +50056,10 @@
       <c r="B42" s="33" t="s">
         <v>1501</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="43">
         <v>234</v>
       </c>
-      <c r="G42" s="45">
+      <c r="G42" s="43">
         <v>166</v>
       </c>
       <c r="J42" s="32">

--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{846C15BF-E710-4963-8947-A1D2F954D546}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB43655-BF56-4A43-9B01-1744B1CE3F4B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49218,8 +49218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A172DD6-C11B-4857-88C4-0584815F29E6}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49862,6 +49862,9 @@
       <c r="I31">
         <v>4.2</v>
       </c>
+      <c r="J31">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="32" spans="1:10" s="32" customFormat="1">
       <c r="A32" s="32" t="s">
@@ -49909,6 +49912,9 @@
         <v>2.5</v>
       </c>
       <c r="I33">
+        <v>2.5</v>
+      </c>
+      <c r="J33">
         <v>2.5</v>
       </c>
     </row>

--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEB43655-BF56-4A43-9B01-1744B1CE3F4B}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E919C1-2FFA-4C47-A546-72771E6DBB7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7143" uniqueCount="1552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="1554">
   <si>
     <t>x</t>
   </si>
@@ -4871,12 +4871,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>rated discharge capacity</t>
-  </si>
-  <si>
-    <t>standard discharge capacity</t>
-  </si>
-  <si>
     <t xml:space="preserve">max charge current </t>
   </si>
   <si>
@@ -4890,6 +4884,18 @@
   </si>
   <si>
     <t>Gravemetric energy density</t>
+  </si>
+  <si>
+    <t>standard discharge current</t>
+  </si>
+  <si>
+    <t>Peak power</t>
+  </si>
+  <si>
+    <t>Voltage for peak power</t>
+  </si>
+  <si>
+    <t>Range plus LFP</t>
   </si>
 </sst>
 </file>
@@ -4899,7 +4905,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5051,6 +5057,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5111,7 +5124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5203,7 +5216,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -5217,6 +5229,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -49216,10 +49233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A172DD6-C11B-4857-88C4-0584815F29E6}">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49227,7 +49244,7 @@
     <col min="1" max="1" width="27.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
@@ -49293,7 +49310,9 @@
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
       <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="H3" s="35" t="s">
+        <v>1553</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="32" customFormat="1">
       <c r="A4" s="32" t="s">
@@ -49358,7 +49377,7 @@
       <c r="B8" s="33" t="s">
         <v>1497</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="41">
         <v>505</v>
       </c>
       <c r="E8" s="32">
@@ -49416,25 +49435,25 @@
       <c r="B10" s="33" t="s">
         <v>1501</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>177</v>
       </c>
       <c r="E10" s="32">
         <v>169</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="42">
         <v>162</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="42">
         <v>97.8</v>
       </c>
       <c r="H10" s="32">
         <v>125</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <v>167</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="42">
         <v>131</v>
       </c>
     </row>
@@ -49474,9 +49493,9 @@
       <c r="B12" s="33" t="s">
         <v>1499</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="D12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
@@ -49508,16 +49527,16 @@
       <c r="B14" s="33" t="s">
         <v>1508</v>
       </c>
-      <c r="D14" s="44">
-        <v>496000</v>
+      <c r="D14" s="43">
+        <v>511000</v>
       </c>
       <c r="E14" s="32">
         <v>736000</v>
       </c>
-      <c r="F14" s="43">
+      <c r="F14" s="42">
         <v>239000</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="42">
         <v>90000</v>
       </c>
       <c r="H14" s="32">
@@ -49566,16 +49585,16 @@
       <c r="B16" s="33" t="s">
         <v>1508</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="43">
         <v>11500</v>
       </c>
       <c r="E16" s="32">
         <v>11000</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>7000</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="42">
         <v>6600</v>
       </c>
       <c r="H16" s="32">
@@ -49600,9 +49619,9 @@
       <c r="B18" s="33" t="s">
         <v>1513</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
@@ -49640,13 +49659,13 @@
       <c r="B20" s="33" t="s">
         <v>1491</v>
       </c>
-      <c r="D20" s="43">
+      <c r="D20" s="42">
         <v>540</v>
       </c>
-      <c r="F20" s="43">
+      <c r="F20" s="42">
         <v>331.2</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="42">
         <v>185.5</v>
       </c>
       <c r="H20" s="32">
@@ -49689,14 +49708,17 @@
       <c r="B22" s="33" t="s">
         <v>1519</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="42">
         <v>459</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="42">
         <v>806</v>
       </c>
-      <c r="G22" s="43">
+      <c r="G22" s="42">
         <v>398</v>
+      </c>
+      <c r="H22" s="32">
+        <v>400</v>
       </c>
       <c r="J22" s="32">
         <v>500</v>
@@ -49718,6 +49740,9 @@
       <c r="G23" s="38">
         <v>240</v>
       </c>
+      <c r="H23" s="47">
+        <v>265</v>
+      </c>
     </row>
     <row r="24" spans="1:10" s="32" customFormat="1">
       <c r="A24" s="32" t="s">
@@ -49726,10 +49751,10 @@
       <c r="B24" s="33" t="s">
         <v>1519</v>
       </c>
-      <c r="F24" s="43">
+      <c r="F24" s="42">
         <v>697</v>
       </c>
-      <c r="G24" s="43">
+      <c r="G24" s="42">
         <v>360</v>
       </c>
       <c r="H24" s="32">
@@ -49785,7 +49810,7 @@
         <v>1524</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="44" t="s">
         <v>1525</v>
       </c>
       <c r="E28" s="32" t="s">
@@ -49833,6 +49858,9 @@
       <c r="G30" s="32" t="s">
         <v>1536</v>
       </c>
+      <c r="H30" s="32" t="s">
+        <v>1537</v>
+      </c>
       <c r="I30" s="32" t="s">
         <v>1537</v>
       </c>
@@ -49928,10 +49956,10 @@
       <c r="D34" s="32">
         <v>5</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="45">
         <v>55.6</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="45">
         <v>43</v>
       </c>
       <c r="H34" s="32">
@@ -49980,28 +50008,35 @@
         <v>1544</v>
       </c>
       <c r="D36" s="32">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="34"/>
+        <v>18.5</v>
+      </c>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="44">
+        <v>782</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
       <c r="B37" s="36" t="s">
         <v>1544</v>
       </c>
       <c r="D37">
-        <v>4.7530000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="38">
+        <v>41</v>
+      </c>
+      <c r="H37" s="39">
+        <v>297</v>
+      </c>
     </row>
     <row r="38" spans="1:10" s="32" customFormat="1">
       <c r="A38" s="32" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B38" s="33" t="s">
         <v>1544</v>
@@ -50009,67 +50044,79 @@
       <c r="D38" s="32">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43">
-        <v>41</v>
-      </c>
-      <c r="H38" s="34"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
+        <v>55</v>
+      </c>
+      <c r="I38" s="34">
+        <f>2.25*148</f>
+        <v>333</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B39" s="36" t="s">
         <v>1544</v>
       </c>
       <c r="D39">
-        <v>4.9000000000000004</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="32" customFormat="1">
+    <row r="40" spans="1:10" s="32" customFormat="1" ht="15">
       <c r="A40" s="32" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="46" t="s">
         <v>1548</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D40" s="32">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43">
-        <v>12</v>
-      </c>
     </row>
-    <row r="41" spans="1:10" ht="15">
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>1549</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="41" t="s">
-        <v>1550</v>
+      <c r="B41" s="36" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F41" s="38">
+        <v>234</v>
+      </c>
+      <c r="G41" s="38">
+        <v>166</v>
+      </c>
+      <c r="J41">
+        <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="32" customFormat="1">
+    <row r="42" spans="1:10">
       <c r="A42" s="32" t="s">
         <v>1551</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F42" s="43">
-        <v>234</v>
-      </c>
-      <c r="G42" s="43">
-        <v>166</v>
-      </c>
-      <c r="J42" s="32">
-        <v>213</v>
+      <c r="D42" s="32">
+        <v>65.8</v>
+      </c>
+      <c r="H42">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D43" s="48">
+        <f>D42/D36</f>
+        <v>3.5567567567567564</v>
+      </c>
+      <c r="H43" s="48">
+        <f>H42/H36</f>
+        <v>2.8644501278772379</v>
       </c>
     </row>
   </sheetData>

--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18E919C1-2FFA-4C47-A546-72771E6DBB7F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1F6E7A-A4BB-437E-BEEC-B40655DF3617}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7145" uniqueCount="1554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7148" uniqueCount="1557">
   <si>
     <t>x</t>
   </si>
@@ -4896,6 +4896,15 @@
   </si>
   <si>
     <t>Range plus LFP</t>
+  </si>
+  <si>
+    <t>Kia Niro</t>
+  </si>
+  <si>
+    <t>crossover SUV</t>
+  </si>
+  <si>
+    <t>98s 3p</t>
   </si>
 </sst>
 </file>
@@ -5059,7 +5068,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5124,7 +5133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -5230,10 +5239,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -49233,10 +49243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A172DD6-C11B-4857-88C4-0584815F29E6}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49253,7 +49263,7 @@
     <col min="10" max="10" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>1475</v>
       </c>
@@ -49281,8 +49291,11 @@
       <c r="J1" s="35" t="s">
         <v>1483</v>
       </c>
+      <c r="K1" s="35" t="s">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1484</v>
       </c>
@@ -49302,19 +49315,27 @@
       <c r="H2" s="35" t="s">
         <v>1489</v>
       </c>
+      <c r="K2" s="35" t="s">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="35">
+        <v>2015</v>
+      </c>
       <c r="H3" s="35" t="s">
         <v>1553</v>
       </c>
+      <c r="K3">
+        <v>2019</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" s="32" customFormat="1">
+    <row r="4" spans="1:11" s="32" customFormat="1">
       <c r="A4" s="32" t="s">
         <v>1490</v>
       </c>
@@ -49329,7 +49350,7 @@
       <c r="G4" s="33"/>
       <c r="H4" s="33"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>1492</v>
       </c>
@@ -49344,7 +49365,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
     </row>
-    <row r="6" spans="1:10" s="32" customFormat="1">
+    <row r="6" spans="1:11" s="32" customFormat="1">
       <c r="A6" s="32" t="s">
         <v>1494</v>
       </c>
@@ -49357,7 +49378,7 @@
       <c r="G6" s="33"/>
       <c r="H6" s="33"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>1495</v>
       </c>
@@ -49370,7 +49391,7 @@
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
     </row>
-    <row r="8" spans="1:10" s="32" customFormat="1">
+    <row r="8" spans="1:11" s="32" customFormat="1">
       <c r="A8" s="32" t="s">
         <v>1496</v>
       </c>
@@ -49399,7 +49420,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1498</v>
       </c>
@@ -49427,8 +49448,11 @@
       <c r="J9">
         <v>45000</v>
       </c>
+      <c r="K9">
+        <v>68000</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" s="32" customFormat="1">
+    <row r="10" spans="1:11" s="32" customFormat="1">
       <c r="A10" s="32" t="s">
         <v>1500</v>
       </c>
@@ -49456,8 +49480,11 @@
       <c r="J10" s="42">
         <v>131</v>
       </c>
+      <c r="K10" s="32">
+        <v>154</v>
+      </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>1502</v>
       </c>
@@ -49485,8 +49512,11 @@
       <c r="J11">
         <v>52</v>
       </c>
+      <c r="K11">
+        <v>44</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" s="32" customFormat="1">
+    <row r="12" spans="1:11" s="32" customFormat="1">
       <c r="A12" s="32" t="s">
         <v>1504</v>
       </c>
@@ -49497,7 +49527,7 @@
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>1505</v>
       </c>
@@ -49520,7 +49550,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="32" customFormat="1">
+    <row r="14" spans="1:11" s="32" customFormat="1">
       <c r="A14" s="32" t="s">
         <v>1507</v>
       </c>
@@ -49548,8 +49578,11 @@
       <c r="J14" s="32">
         <v>167000</v>
       </c>
+      <c r="K14" s="32">
+        <v>150000</v>
+      </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>1509</v>
       </c>
@@ -49577,8 +49610,11 @@
       <c r="J15">
         <v>50000</v>
       </c>
+      <c r="K15">
+        <v>77000</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" s="32" customFormat="1">
+    <row r="16" spans="1:11" s="32" customFormat="1">
       <c r="A16" s="32" t="s">
         <v>1510</v>
       </c>
@@ -49601,7 +49637,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>1511</v>
       </c>
@@ -49612,7 +49648,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
     </row>
-    <row r="18" spans="1:10" s="32" customFormat="1">
+    <row r="18" spans="1:11" s="32" customFormat="1">
       <c r="A18" s="32" t="s">
         <v>1512</v>
       </c>
@@ -49623,7 +49659,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>1514</v>
       </c>
@@ -49651,8 +49687,11 @@
       <c r="J19" s="38">
         <v>415</v>
       </c>
+      <c r="K19" s="38">
+        <v>443</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" s="32" customFormat="1">
+    <row r="20" spans="1:11" s="32" customFormat="1">
       <c r="A20" s="32" t="s">
         <v>1515</v>
       </c>
@@ -49674,8 +49713,11 @@
       <c r="J20" s="32">
         <v>255</v>
       </c>
+      <c r="K20" s="32">
+        <v>264</v>
+      </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>1516</v>
       </c>
@@ -49700,8 +49742,11 @@
       <c r="J21" s="38">
         <v>153</v>
       </c>
+      <c r="K21" s="38">
+        <v>180.9</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" s="32" customFormat="1">
+    <row r="22" spans="1:11" s="32" customFormat="1">
       <c r="A22" s="32" t="s">
         <v>1518</v>
       </c>
@@ -49723,8 +49768,11 @@
       <c r="J22" s="32">
         <v>500</v>
       </c>
+      <c r="K22" s="48">
+        <v>450</v>
+      </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>1520</v>
       </c>
@@ -49740,11 +49788,14 @@
       <c r="G23" s="38">
         <v>240</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="49">
         <v>265</v>
       </c>
+      <c r="K23" s="49">
+        <v>245</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" s="32" customFormat="1">
+    <row r="24" spans="1:11" s="32" customFormat="1">
       <c r="A24" s="32" t="s">
         <v>1521</v>
       </c>
@@ -49766,19 +49817,22 @@
       <c r="J24" s="32">
         <v>355.2</v>
       </c>
+      <c r="K24" s="32">
+        <v>356</v>
+      </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11">
       <c r="B25" s="36"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>1522</v>
       </c>
       <c r="B26" s="36"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>1523</v>
       </c>
@@ -49804,8 +49858,11 @@
       <c r="J27">
         <v>288</v>
       </c>
+      <c r="K27">
+        <v>294</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" s="32" customFormat="1">
+    <row r="28" spans="1:11" s="32" customFormat="1">
       <c r="A28" s="32" t="s">
         <v>1524</v>
       </c>
@@ -49831,8 +49888,11 @@
       <c r="J28" s="32" t="s">
         <v>1531</v>
       </c>
+      <c r="K28" s="32" t="s">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>1532</v>
       </c>
@@ -49844,7 +49904,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="32" customFormat="1">
+    <row r="30" spans="1:11" s="32" customFormat="1">
       <c r="A30" s="32" t="s">
         <v>1534</v>
       </c>
@@ -49868,7 +49928,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>1538</v>
       </c>
@@ -49893,8 +49953,11 @@
       <c r="J31">
         <v>4.2</v>
       </c>
+      <c r="K31">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" s="32" customFormat="1">
+    <row r="32" spans="1:11" s="32" customFormat="1">
       <c r="A32" s="32" t="s">
         <v>1539</v>
       </c>
@@ -49919,8 +49982,11 @@
       <c r="J32" s="32">
         <v>3.7</v>
       </c>
+      <c r="K32" s="32">
+        <v>3.63</v>
+      </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>1540</v>
       </c>
@@ -49945,8 +50011,11 @@
       <c r="J33">
         <v>2.5</v>
       </c>
+      <c r="K33">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" s="32" customFormat="1">
+    <row r="34" spans="1:11" s="32" customFormat="1">
       <c r="A34" s="32" t="s">
         <v>1541</v>
       </c>
@@ -49971,8 +50040,11 @@
       <c r="J34" s="32">
         <v>51</v>
       </c>
+      <c r="K34" s="32">
+        <v>60</v>
+      </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>1542</v>
       </c>
@@ -49999,8 +50071,11 @@
       <c r="J35">
         <v>188.7</v>
       </c>
+      <c r="K35">
+        <v>218</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" s="32" customFormat="1">
+    <row r="36" spans="1:11" s="32" customFormat="1">
       <c r="A36" s="32" t="s">
         <v>1543</v>
       </c>
@@ -50015,8 +50090,11 @@
       <c r="H36" s="44">
         <v>782</v>
       </c>
+      <c r="K36" s="32">
+        <v>284</v>
+      </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>1550</v>
       </c>
@@ -50033,8 +50111,11 @@
       <c r="H37" s="39">
         <v>297</v>
       </c>
+      <c r="K37">
+        <v>120</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" s="32" customFormat="1">
+    <row r="38" spans="1:11" s="32" customFormat="1">
       <c r="A38" s="32" t="s">
         <v>1545</v>
       </c>
@@ -50053,7 +50134,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>1546</v>
       </c>
@@ -50068,7 +50149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="32" customFormat="1" ht="15">
+    <row r="40" spans="1:11" s="32" customFormat="1" ht="15">
       <c r="A40" s="32" t="s">
         <v>1547</v>
       </c>
@@ -50078,7 +50159,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>1549</v>
       </c>
@@ -50094,29 +50175,44 @@
       <c r="J41">
         <v>213</v>
       </c>
+      <c r="K41">
+        <v>242</v>
+      </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="32" t="s">
         <v>1551</v>
       </c>
       <c r="D42" s="32">
         <v>65.8</v>
       </c>
+      <c r="G42" s="40">
+        <f>G14/G27</f>
+        <v>468.75</v>
+      </c>
       <c r="H42">
         <v>2240</v>
       </c>
+      <c r="K42">
+        <v>968</v>
+      </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>1552</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="47">
         <f>D42/D36</f>
         <v>3.5567567567567564</v>
       </c>
-      <c r="H43" s="48">
+      <c r="G43" s="47"/>
+      <c r="H43" s="47">
         <f>H42/H36</f>
         <v>2.8644501278772379</v>
+      </c>
+      <c r="K43" s="47">
+        <f>K42/K36</f>
+        <v>3.408450704225352</v>
       </c>
     </row>
   </sheetData>

--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{385ADDDD-27FB-4340-B388-A06DAF83247F}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{CC68786B-84FA-4A6B-A7FB-5A7B9F03448B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF58227A-ED2B-4EB2-B297-D5D531B0B236}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5376" yWindow="5352" windowWidth="7956" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
     <sheet name="batteries in dev" sheetId="2" r:id="rId2"/>
     <sheet name="EV Data" sheetId="3" r:id="rId3"/>
     <sheet name="WLTP Acc" sheetId="4" r:id="rId4"/>
+    <sheet name="Test" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RAW DATA'!$F$2:$F$395</definedName>
@@ -5288,7 +5289,7 @@
   </sheetPr>
   <dimension ref="A1:AO355"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="AI116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -43540,11 +43541,11 @@
         <v>759</v>
       </c>
       <c r="AN324">
-        <f t="shared" ref="AN324:AN352" si="27">IF(G324="Pouch",1,IF(G324="Prismatic",2,IF(G324="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN324:AN348" si="27">IF(G324="Pouch",1,IF(G324="Prismatic",2,IF(G324="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO324">
-        <f t="shared" ref="AO324:AO359" si="28">IF(AN324=1, 60.25, IF(AN324=2, 60.79, IF(AN324=3, 64.69, 0)))</f>
+        <f t="shared" ref="AO324:AO355" si="28">IF(AN324=1, 60.25, IF(AN324=2, 60.79, IF(AN324=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -77489,6 +77490,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06120487-0105-4568-8F1F-1AB261EBD0D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" enabled="0" method="" siteId="{377e3d22-4ea1-422d-b0ad-8fcc89406b9e}" removed="1"/>

--- a/Battery database from open source_CellDatabase_v6.xlsx
+++ b/Battery database from open source_CellDatabase_v6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ojb56_bath_ac_uk/Documents/4th Year/Semester 2/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_A41A9D97F2FD8794E0287B3AEE6DCC4552FD0051" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6999E881-5455-4DF2-84CA-F9973E1BAA77}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_9413C7BFD5F52DA5ED355FED9F69C2D553FD17B5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8B295D-4EC5-49B4-AC9A-0280193A0C5D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAW DATA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6019" uniqueCount="1154">
   <si>
     <t>Battery number</t>
   </si>
@@ -3475,6 +3475,33 @@
   </si>
   <si>
     <t>EV mass</t>
+  </si>
+  <si>
+    <t>EV drag coefficient</t>
+  </si>
+  <si>
+    <t>EV Frontal Area</t>
+  </si>
+  <si>
+    <t>EV Rolling Resistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Energy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Pack Mass </t>
+  </si>
+  <si>
+    <t>Max Voltage</t>
+  </si>
+  <si>
+    <t>Min Voltage</t>
+  </si>
+  <si>
+    <t>Min Peak Discharging Power</t>
+  </si>
+  <si>
+    <t>Min Peak Charging Power</t>
   </si>
 </sst>
 </file>
@@ -4132,10 +4159,10 @@
   <dimension ref="A1:AO355"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AE327" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E351" sqref="E351"/>
+      <selection pane="bottomRight" activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -4546,7 +4573,6 @@
         <v>1</v>
       </c>
       <c r="AO3">
-        <f t="shared" ref="AO3:AO66" si="1">IF(AN3=1, 60.25, IF(AN3=2, 60.79, IF(AN3=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -4606,7 +4632,7 @@
         <v>2.7</v>
       </c>
       <c r="S4" s="3">
-        <f t="shared" ref="S4:S11" si="2">O4*0.2</f>
+        <f t="shared" ref="S4:S11" si="1">O4*0.2</f>
         <v>6</v>
       </c>
       <c r="T4" s="3">
@@ -4623,7 +4649,7 @@
         <v>90</v>
       </c>
       <c r="Y4" s="3">
-        <f t="shared" ref="Y4:Y11" si="3">O4*0.2</f>
+        <f t="shared" ref="Y4:Y11" si="2">O4*0.2</f>
         <v>6</v>
       </c>
       <c r="Z4" s="6">
@@ -4670,7 +4696,6 @@
         <v>1</v>
       </c>
       <c r="AO4">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -4730,7 +4755,7 @@
         <v>2.7</v>
       </c>
       <c r="S5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="T5" s="3">
@@ -4747,7 +4772,7 @@
         <v>150</v>
       </c>
       <c r="Y5" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="Z5" s="6">
@@ -4797,7 +4822,6 @@
         <v>1</v>
       </c>
       <c r="AO5">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -4857,7 +4881,7 @@
         <v>2.7</v>
       </c>
       <c r="S6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="T6" s="3">
@@ -4874,7 +4898,7 @@
         <v>200</v>
       </c>
       <c r="Y6" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="Z6" s="6">
@@ -4921,7 +4945,6 @@
         <v>1</v>
       </c>
       <c r="AO6">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -4981,7 +5004,7 @@
         <v>2.7</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="T7" s="3">
@@ -4998,7 +5021,7 @@
         <v>240</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="Z7" s="6">
@@ -5048,7 +5071,6 @@
         <v>1</v>
       </c>
       <c r="AO7">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -5108,7 +5130,7 @@
         <v>2.7</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="T8" s="3">
@@ -5126,7 +5148,7 @@
         <v>120</v>
       </c>
       <c r="Y8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="Z8" s="6">
@@ -5176,7 +5198,6 @@
         <v>1</v>
       </c>
       <c r="AO8">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -5236,7 +5257,7 @@
         <v>2.7</v>
       </c>
       <c r="S9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="T9" s="3">
@@ -5253,7 +5274,7 @@
         <v>138</v>
       </c>
       <c r="Y9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9.2000000000000011</v>
       </c>
       <c r="Z9" s="6">
@@ -5303,7 +5324,6 @@
         <v>1</v>
       </c>
       <c r="AO9">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -5363,7 +5383,7 @@
         <v>2.7</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="T10" s="3">
@@ -5381,7 +5401,7 @@
         <v>171</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11.4</v>
       </c>
       <c r="Z10" s="6">
@@ -5431,7 +5451,6 @@
         <v>1</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -5491,7 +5510,7 @@
         <v>2.7</v>
       </c>
       <c r="S11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="T11" s="3">
@@ -5508,7 +5527,7 @@
         <v>225</v>
       </c>
       <c r="Y11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="Z11" s="6">
@@ -5555,7 +5574,6 @@
         <v>1</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -5672,7 +5690,6 @@
         <v>2</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -5789,7 +5806,6 @@
         <v>2</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -5906,7 +5922,6 @@
         <v>2</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6022,7 +6037,6 @@
         <v>2</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6096,7 +6110,7 @@
         <v>5510</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" ref="X16:X22" si="4">1*O16</f>
+        <f t="shared" ref="X16:X22" si="3">1*O16</f>
         <v>302</v>
       </c>
       <c r="Y16" s="3">
@@ -6145,7 +6159,6 @@
         <v>2</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6219,7 +6232,7 @@
         <v>3840</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="Y17" s="3">
@@ -6265,7 +6278,6 @@
         <v>2</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6340,7 +6352,7 @@
         <v>3840</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="Y18" s="3">
@@ -6385,7 +6397,6 @@
         <v>2</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6458,7 +6469,7 @@
         <v>4200</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="Y19" s="3">
@@ -6505,7 +6516,6 @@
         <v>2</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6579,7 +6589,7 @@
         <v>5300</v>
       </c>
       <c r="X20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>280</v>
       </c>
       <c r="Y20" s="3">
@@ -6630,7 +6640,6 @@
         <v>2</v>
       </c>
       <c r="AO20">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6704,7 +6713,7 @@
         <v>5490</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>304</v>
       </c>
       <c r="Y21" s="3">
@@ -6755,7 +6764,6 @@
         <v>2</v>
       </c>
       <c r="AO21">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6828,7 +6836,7 @@
         <v>3000</v>
       </c>
       <c r="X22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Y22" s="3">
@@ -6873,7 +6881,6 @@
         <v>2</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -6990,7 +6997,6 @@
         <v>2</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7114,7 +7120,6 @@
         <v>1</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -7236,7 +7241,6 @@
         <v>2</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7358,7 +7362,6 @@
         <v>2</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7483,7 +7486,6 @@
         <v>2</v>
       </c>
       <c r="AO27">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7608,7 +7610,6 @@
         <v>2</v>
       </c>
       <c r="AO28">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7733,7 +7734,6 @@
         <v>2</v>
       </c>
       <c r="AO29">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7857,7 +7857,6 @@
         <v>2</v>
       </c>
       <c r="AO30">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -7979,7 +7978,6 @@
         <v>2</v>
       </c>
       <c r="AO31">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8101,7 +8099,6 @@
         <v>2</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8223,7 +8220,6 @@
         <v>2</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8342,7 +8338,6 @@
         <v>2</v>
       </c>
       <c r="AO34">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8466,7 +8461,6 @@
         <v>1</v>
       </c>
       <c r="AO35">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -8581,7 +8575,6 @@
         <v>2</v>
       </c>
       <c r="AO36">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8696,7 +8689,6 @@
         <v>2</v>
       </c>
       <c r="AO37">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -8811,7 +8803,6 @@
         <v>1</v>
       </c>
       <c r="AO38">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -8930,7 +8921,6 @@
         <v>1</v>
       </c>
       <c r="AO39">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -9052,7 +9042,6 @@
         <v>1</v>
       </c>
       <c r="AO40">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -9171,7 +9160,6 @@
         <v>1</v>
       </c>
       <c r="AO41">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -9291,7 +9279,6 @@
         <v>1</v>
       </c>
       <c r="AO42">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -9408,7 +9395,6 @@
         <v>3</v>
       </c>
       <c r="AO43">
-        <f t="shared" si="1"/>
         <v>64.69</v>
       </c>
     </row>
@@ -9525,7 +9511,6 @@
         <v>3</v>
       </c>
       <c r="AO44">
-        <f t="shared" si="1"/>
         <v>64.69</v>
       </c>
     </row>
@@ -9649,7 +9634,6 @@
         <v>1</v>
       </c>
       <c r="AO45">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -9768,7 +9752,6 @@
         <v>2</v>
       </c>
       <c r="AO46">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -9887,7 +9870,6 @@
         <v>2</v>
       </c>
       <c r="AO47">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -10006,7 +9988,6 @@
         <v>2</v>
       </c>
       <c r="AO48">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -10125,7 +10106,6 @@
         <v>2</v>
       </c>
       <c r="AO49">
-        <f t="shared" si="1"/>
         <v>60.79</v>
       </c>
     </row>
@@ -10250,7 +10230,6 @@
         <v>1</v>
       </c>
       <c r="AO50">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10372,7 +10351,6 @@
         <v>1</v>
       </c>
       <c r="AO51">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10494,7 +10472,6 @@
         <v>1</v>
       </c>
       <c r="AO52">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10613,7 +10590,6 @@
         <v>1</v>
       </c>
       <c r="AO53">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10732,7 +10708,6 @@
         <v>1</v>
       </c>
       <c r="AO54">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10851,7 +10826,6 @@
         <v>1</v>
       </c>
       <c r="AO55">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -10978,7 +10952,6 @@
         <v>1</v>
       </c>
       <c r="AO56">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11095,7 +11068,6 @@
         <v>1</v>
       </c>
       <c r="AO57">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11210,7 +11182,6 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11329,7 +11300,6 @@
         <v>1</v>
       </c>
       <c r="AO59">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11402,7 +11372,7 @@
         <v>240</v>
       </c>
       <c r="X60" s="3">
-        <f t="shared" ref="X60:X65" si="5">1*O60</f>
+        <f t="shared" ref="X60:X65" si="4">1*O60</f>
         <v>12</v>
       </c>
       <c r="Y60" s="3">
@@ -11446,7 +11416,6 @@
         <v>1</v>
       </c>
       <c r="AO60">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11520,7 +11489,7 @@
         <v>990</v>
       </c>
       <c r="X61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="Y61" s="3">
@@ -11565,7 +11534,6 @@
         <v>1</v>
       </c>
       <c r="AO61">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11639,7 +11607,7 @@
         <v>60</v>
       </c>
       <c r="X62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3</v>
       </c>
       <c r="Y62" s="3">
@@ -11687,7 +11655,6 @@
         <v>1</v>
       </c>
       <c r="AO62">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11755,7 +11722,7 @@
         <v>155</v>
       </c>
       <c r="X63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="Y63" s="3">
@@ -11800,7 +11767,6 @@
         <v>1</v>
       </c>
       <c r="AO63">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11868,7 +11834,7 @@
         <v>70</v>
       </c>
       <c r="X64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="Y64" s="3">
@@ -11913,7 +11879,6 @@
         <v>1</v>
       </c>
       <c r="AO64">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -11981,7 +11946,7 @@
         <v>200</v>
       </c>
       <c r="X65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="Y65" s="3">
@@ -12026,7 +11991,6 @@
         <v>1</v>
       </c>
       <c r="AO65">
-        <f t="shared" si="1"/>
         <v>60.25</v>
       </c>
     </row>
@@ -12138,7 +12102,6 @@
         <v>3</v>
       </c>
       <c r="AO66">
-        <f t="shared" si="1"/>
         <v>64.69</v>
       </c>
     </row>
@@ -12258,11 +12221,10 @@
         <v>0.9</v>
       </c>
       <c r="AN67">
-        <f t="shared" ref="AN67:AN130" si="6">IF(G67="Pouch",1,IF(G67="Prismatic",2,IF(G67="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN67:AN130" si="5">IF(G67="Pouch",1,IF(G67="Prismatic",2,IF(G67="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO67">
-        <f t="shared" ref="AO67:AO130" si="7">IF(AN67=1, 60.25, IF(AN67=2, 60.79, IF(AN67=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -12373,11 +12335,10 @@
         <v>49</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -12487,11 +12448,10 @@
         <v>49</v>
       </c>
       <c r="AN69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO69">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -12602,11 +12562,10 @@
         <v>49</v>
       </c>
       <c r="AN70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO70">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -12713,11 +12672,10 @@
         <v>49</v>
       </c>
       <c r="AN71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -12824,11 +12782,10 @@
         <v>49</v>
       </c>
       <c r="AN72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -12935,11 +12892,10 @@
         <v>49</v>
       </c>
       <c r="AN73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -13043,11 +12999,10 @@
         <v>49</v>
       </c>
       <c r="AN74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -13166,11 +13121,10 @@
         <v>0.8</v>
       </c>
       <c r="AN75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -13289,11 +13243,10 @@
         <v>1</v>
       </c>
       <c r="AN76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO76">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -13413,11 +13366,10 @@
         <v>1</v>
       </c>
       <c r="AN77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO77">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -13537,11 +13489,10 @@
         <v>0.9</v>
       </c>
       <c r="AN78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO78">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -13656,11 +13607,10 @@
         <v>49</v>
       </c>
       <c r="AN79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO79">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -13773,11 +13723,10 @@
         <v>49</v>
       </c>
       <c r="AN80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -13890,11 +13839,10 @@
         <v>49</v>
       </c>
       <c r="AN81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO81">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14009,11 +13957,10 @@
         <v>49</v>
       </c>
       <c r="AN82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO82">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14124,11 +14071,10 @@
         <v>49</v>
       </c>
       <c r="AN83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14236,11 +14182,10 @@
         <v>49</v>
       </c>
       <c r="AN84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14357,11 +14302,10 @@
         <v>49</v>
       </c>
       <c r="AN85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14475,11 +14419,10 @@
         <v>49</v>
       </c>
       <c r="AN86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO86">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14595,11 +14538,10 @@
         <v>49</v>
       </c>
       <c r="AN87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO87">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14719,11 +14661,10 @@
         <v>0.9</v>
       </c>
       <c r="AN88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -14833,11 +14774,10 @@
         <v>49</v>
       </c>
       <c r="AN89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -14951,11 +14891,10 @@
         <v>49</v>
       </c>
       <c r="AN90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15069,11 +15008,10 @@
         <v>49</v>
       </c>
       <c r="AN91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15187,11 +15125,10 @@
         <v>49</v>
       </c>
       <c r="AN92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15308,11 +15245,10 @@
         <v>1</v>
       </c>
       <c r="AN93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -15429,11 +15365,10 @@
         <v>49</v>
       </c>
       <c r="AN94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15547,11 +15482,10 @@
         <v>49</v>
       </c>
       <c r="AN95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO95">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15665,11 +15599,10 @@
         <v>0.9</v>
       </c>
       <c r="AN96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO96">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15783,11 +15716,10 @@
         <v>49</v>
       </c>
       <c r="AN97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO97">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -15900,11 +15832,10 @@
         <v>49</v>
       </c>
       <c r="AN98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO98">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16017,11 +15948,10 @@
         <v>49</v>
       </c>
       <c r="AN99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO99">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16134,11 +16064,10 @@
         <v>49</v>
       </c>
       <c r="AN100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO100">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16248,11 +16177,10 @@
         <v>49</v>
       </c>
       <c r="AN101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO101">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16362,11 +16290,10 @@
         <v>49</v>
       </c>
       <c r="AN102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO102">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16476,11 +16403,10 @@
         <v>49</v>
       </c>
       <c r="AN103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO103">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -16540,7 +16466,7 @@
         <v>2</v>
       </c>
       <c r="S104" s="3">
-        <f t="shared" ref="S104:S114" si="8">0.2*O104</f>
+        <f t="shared" ref="S104:S114" si="6">0.2*O104</f>
         <v>0.70000000000000007</v>
       </c>
       <c r="T104" s="3">
@@ -16556,7 +16482,7 @@
         <v>3.5</v>
       </c>
       <c r="Y104" s="15">
-        <f t="shared" ref="Y104:Y110" si="9">0.2*P104</f>
+        <f t="shared" ref="Y104:Y110" si="7">0.2*P104</f>
         <v>0.73</v>
       </c>
       <c r="Z104" s="6">
@@ -16596,11 +16522,10 @@
         <v>49</v>
       </c>
       <c r="AN104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO104">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -16660,7 +16585,7 @@
         <v>2</v>
       </c>
       <c r="S105" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="T105" s="3">
@@ -16676,7 +16601,7 @@
         <v>11</v>
       </c>
       <c r="Y105" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z105" s="6">
@@ -16719,11 +16644,10 @@
         <v>1</v>
       </c>
       <c r="AN105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO105">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -16783,7 +16707,7 @@
         <v>2</v>
       </c>
       <c r="S106" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T106" s="3">
@@ -16799,7 +16723,7 @@
         <v>5</v>
       </c>
       <c r="Y106" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z106" s="6">
@@ -16842,11 +16766,10 @@
         <v>1</v>
       </c>
       <c r="AN106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO106">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -16906,7 +16829,7 @@
         <v>2</v>
       </c>
       <c r="S107" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.7000000000000002</v>
       </c>
       <c r="T107" s="3">
@@ -16922,7 +16845,7 @@
         <v>8.5</v>
       </c>
       <c r="Y107" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z107" s="6">
@@ -16965,11 +16888,10 @@
         <v>1</v>
       </c>
       <c r="AN107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO107">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -17029,7 +16951,7 @@
         <v>2</v>
       </c>
       <c r="S108" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
       <c r="T108" s="3">
@@ -17045,7 +16967,7 @@
         <v>4.5</v>
       </c>
       <c r="Y108" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z108" s="6">
@@ -17088,11 +17010,10 @@
         <v>1</v>
       </c>
       <c r="AN108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO108">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -17152,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="S109" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="T109" s="3">
@@ -17168,7 +17089,7 @@
         <v>10</v>
       </c>
       <c r="Y109" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z109" s="6">
@@ -17211,11 +17132,10 @@
         <v>1</v>
       </c>
       <c r="AN109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO109">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -17275,7 +17195,7 @@
         <v>2</v>
       </c>
       <c r="S110" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="T110" s="3">
@@ -17291,7 +17211,7 @@
         <v>7</v>
       </c>
       <c r="Y110" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0.73</v>
       </c>
       <c r="Z110" s="6">
@@ -17334,11 +17254,10 @@
         <v>1</v>
       </c>
       <c r="AN110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO110">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -17398,7 +17317,7 @@
         <v>3</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="T111" s="3">
@@ -17451,11 +17370,10 @@
         <v>49</v>
       </c>
       <c r="AN111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO111">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -17515,7 +17433,7 @@
         <v>2.5</v>
       </c>
       <c r="S112" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="T112" s="3">
@@ -17564,11 +17482,10 @@
         <v>49</v>
       </c>
       <c r="AN112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO112">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -17628,7 +17545,7 @@
         <v>2.5</v>
       </c>
       <c r="S113" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.4000000000000004</v>
       </c>
       <c r="T113" s="3">
@@ -17686,11 +17603,10 @@
         <v>49</v>
       </c>
       <c r="AN113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO113">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -17750,7 +17666,7 @@
         <v>2.5</v>
       </c>
       <c r="S114" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10.200000000000001</v>
       </c>
       <c r="T114" s="3">
@@ -17805,11 +17721,10 @@
         <v>49</v>
       </c>
       <c r="AN114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO114">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -17914,11 +17829,10 @@
         <v>49</v>
       </c>
       <c r="AN115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO115">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -18036,11 +17950,10 @@
         <v>49</v>
       </c>
       <c r="AN116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO116">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18150,11 +18063,10 @@
         <v>49</v>
       </c>
       <c r="AN117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO117">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18266,11 +18178,10 @@
         <v>49</v>
       </c>
       <c r="AN118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO118">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -18327,7 +18238,7 @@
         <v>2.75</v>
       </c>
       <c r="S119" s="3">
-        <f t="shared" ref="S119:S127" si="10">0.5*O119</f>
+        <f t="shared" ref="S119:S127" si="8">0.5*O119</f>
         <v>30</v>
       </c>
       <c r="T119" s="3">
@@ -18381,11 +18292,10 @@
         <v>49</v>
       </c>
       <c r="AN119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO119">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -18445,7 +18355,7 @@
         <v>2.75</v>
       </c>
       <c r="S120" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="T120" s="3">
@@ -18500,11 +18410,10 @@
         <v>0.8</v>
       </c>
       <c r="AN120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO120">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18564,7 +18473,7 @@
         <v>2.5</v>
       </c>
       <c r="S121" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="T121" s="3">
@@ -18582,7 +18491,7 @@
         <v>72</v>
       </c>
       <c r="Y121" s="3">
-        <f t="shared" ref="Y121:Y127" si="11">0.5*O121</f>
+        <f t="shared" ref="Y121:Y127" si="9">0.5*O121</f>
         <v>36</v>
       </c>
       <c r="Z121" s="6">
@@ -18622,11 +18531,10 @@
         <v>0.8</v>
       </c>
       <c r="AN121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO121">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18686,7 +18594,7 @@
         <v>2.5</v>
       </c>
       <c r="S122" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="T122" s="3">
@@ -18704,7 +18612,7 @@
         <v>100</v>
       </c>
       <c r="Y122" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="Z122" s="6">
@@ -18744,11 +18652,10 @@
         <v>0.8</v>
       </c>
       <c r="AN122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO122">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18808,7 +18715,7 @@
         <v>2.5</v>
       </c>
       <c r="S123" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="T123" s="3">
@@ -18826,7 +18733,7 @@
         <v>176</v>
       </c>
       <c r="Y123" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="Z123" s="6">
@@ -18866,11 +18773,10 @@
         <v>0.8</v>
       </c>
       <c r="AN123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO123">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -18930,7 +18836,7 @@
         <v>2</v>
       </c>
       <c r="S124" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.8</v>
       </c>
       <c r="T124" s="3">
@@ -18946,7 +18852,7 @@
         <v>5.4</v>
       </c>
       <c r="Y124" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.8</v>
       </c>
       <c r="Z124" s="6">
@@ -18983,11 +18889,10 @@
         <v>0.8</v>
       </c>
       <c r="AN124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO124">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -19044,7 +18949,7 @@
         <v>2.75</v>
       </c>
       <c r="S125" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>24.75</v>
       </c>
       <c r="T125" s="3">
@@ -19062,7 +18967,7 @@
         <v>49.5</v>
       </c>
       <c r="Y125" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>24.75</v>
       </c>
       <c r="Z125" s="6">
@@ -19105,11 +19010,10 @@
         <v>49</v>
       </c>
       <c r="AN125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AO125">
-        <f t="shared" si="7"/>
         <v>60.79</v>
       </c>
     </row>
@@ -19166,7 +19070,7 @@
         <v>2.5</v>
       </c>
       <c r="S126" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.5</v>
       </c>
       <c r="T126" s="3">
@@ -19184,7 +19088,7 @@
         <v>5</v>
       </c>
       <c r="Y126" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="Z126" s="6">
@@ -19226,11 +19130,10 @@
         <v>49</v>
       </c>
       <c r="AN126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO126">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -19287,7 +19190,7 @@
         <v>2.5</v>
       </c>
       <c r="S127" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="T127" s="3">
@@ -19304,7 +19207,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="Y127" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.5099999999999998</v>
       </c>
       <c r="Z127" s="6">
@@ -19346,11 +19249,10 @@
         <v>49</v>
       </c>
       <c r="AN127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO127">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -19460,11 +19362,10 @@
         <v>49</v>
       </c>
       <c r="AN128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO128">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -19577,11 +19478,10 @@
         <v>49</v>
       </c>
       <c r="AN129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AO129">
-        <f t="shared" si="7"/>
         <v>64.69</v>
       </c>
     </row>
@@ -19698,11 +19598,10 @@
         <v>49</v>
       </c>
       <c r="AN130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AO130">
-        <f t="shared" si="7"/>
         <v>60.25</v>
       </c>
     </row>
@@ -19813,11 +19712,10 @@
         <v>49</v>
       </c>
       <c r="AN131">
-        <f t="shared" ref="AN131:AN194" si="12">IF(G131="Pouch",1,IF(G131="Prismatic",2,IF(G131="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN131:AN194" si="10">IF(G131="Pouch",1,IF(G131="Prismatic",2,IF(G131="Cylindrical",3,"")))</f>
         <v>2</v>
       </c>
       <c r="AO131">
-        <f t="shared" ref="AO131:AO194" si="13">IF(AN131=1, 60.25, IF(AN131=2, 60.79, IF(AN131=3, 64.69, 0)))</f>
         <v>60.79</v>
       </c>
     </row>
@@ -19935,11 +19833,10 @@
         <v>49</v>
       </c>
       <c r="AN132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO132">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20060,11 +19957,10 @@
         <v>49</v>
       </c>
       <c r="AN133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO133">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20182,11 +20078,10 @@
         <v>49</v>
       </c>
       <c r="AN134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO134">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20292,11 +20187,10 @@
         <v>0.8</v>
       </c>
       <c r="AN135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO135">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -20413,11 +20307,10 @@
         <v>49</v>
       </c>
       <c r="AN136">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO136">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20538,11 +20431,10 @@
         <v>49</v>
       </c>
       <c r="AN137">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO137">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20654,11 +20546,10 @@
         <v>49</v>
       </c>
       <c r="AN138">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO138">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20782,11 +20673,10 @@
         <v>49</v>
       </c>
       <c r="AN139">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO139">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -20899,11 +20789,10 @@
         <v>0.8</v>
       </c>
       <c r="AN140">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO140">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21016,11 +20905,10 @@
         <v>0.8</v>
       </c>
       <c r="AN141">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO141">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21131,11 +21019,10 @@
         <v>0.8</v>
       </c>
       <c r="AN142">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO142">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21245,11 +21132,10 @@
         <v>0.8</v>
       </c>
       <c r="AN143">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO143">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -21362,11 +21248,10 @@
         <v>0.8</v>
       </c>
       <c r="AN144">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO144">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -21480,11 +21365,10 @@
         <v>0.8</v>
       </c>
       <c r="AN145">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO145">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -21592,11 +21476,10 @@
         <v>1</v>
       </c>
       <c r="AN146">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO146">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21704,11 +21587,10 @@
         <v>1</v>
       </c>
       <c r="AN147">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO147">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21816,11 +21698,10 @@
         <v>1</v>
       </c>
       <c r="AN148">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO148">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -21931,11 +21812,10 @@
         <v>0.8</v>
       </c>
       <c r="AN149">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO149">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22037,11 +21917,10 @@
         <v>49</v>
       </c>
       <c r="AN150">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO150">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22143,11 +22022,10 @@
         <v>49</v>
       </c>
       <c r="AN151">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO151">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22249,11 +22127,10 @@
         <v>49</v>
       </c>
       <c r="AN152">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO152">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22364,11 +22241,10 @@
         <v>49</v>
       </c>
       <c r="AN153">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO153">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -22479,11 +22355,10 @@
         <v>49</v>
       </c>
       <c r="AN154">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO154">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -22591,11 +22466,10 @@
         <v>49</v>
       </c>
       <c r="AN155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO155">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22700,11 +22574,10 @@
         <v>49</v>
       </c>
       <c r="AN156">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO156">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -22809,11 +22682,10 @@
         <v>49</v>
       </c>
       <c r="AN157">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO157">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -22918,11 +22790,10 @@
         <v>0.8</v>
       </c>
       <c r="AN158">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO158">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23027,11 +22898,10 @@
         <v>0.8</v>
       </c>
       <c r="AN159">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO159">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23136,11 +23006,10 @@
         <v>0.8</v>
       </c>
       <c r="AN160">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO160">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23245,11 +23114,10 @@
         <v>0.8</v>
       </c>
       <c r="AN161">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO161">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23354,11 +23222,10 @@
         <v>0.8</v>
       </c>
       <c r="AN162">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO162">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23463,11 +23330,10 @@
         <v>0.8</v>
       </c>
       <c r="AN163">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO163">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23572,11 +23438,10 @@
         <v>0.8</v>
       </c>
       <c r="AN164">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO164">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23692,11 +23557,10 @@
         <v>49</v>
       </c>
       <c r="AN165">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO165">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -23810,11 +23674,10 @@
         <v>49</v>
       </c>
       <c r="AN166">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO166">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -23871,7 +23734,7 @@
         <v>2.75</v>
       </c>
       <c r="S167" s="3">
-        <f t="shared" ref="S167:S188" si="14">0.2*O167</f>
+        <f t="shared" ref="S167:S188" si="11">0.2*O167</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="T167" s="3">
@@ -23888,7 +23751,7 @@
         <v>5.7</v>
       </c>
       <c r="Y167" s="3">
-        <f t="shared" ref="Y167:Y175" si="15">0.2*O167</f>
+        <f t="shared" ref="Y167:Y175" si="12">0.2*O167</f>
         <v>1.1400000000000001</v>
       </c>
       <c r="Z167" s="6">
@@ -23929,11 +23792,10 @@
         <v>49</v>
       </c>
       <c r="AN167">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO167">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -23993,7 +23855,7 @@
         <v>1.5</v>
       </c>
       <c r="S168" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1.8</v>
       </c>
       <c r="T168" s="3">
@@ -24011,7 +23873,7 @@
         <v>90</v>
       </c>
       <c r="Y168" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1.8</v>
       </c>
       <c r="Z168" s="6">
@@ -24046,11 +23908,10 @@
         <v>49</v>
       </c>
       <c r="AN168">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO168">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -24110,7 +23971,7 @@
         <v>1.5</v>
       </c>
       <c r="S169" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="T169" s="3">
@@ -24128,7 +23989,7 @@
         <v>240</v>
       </c>
       <c r="Y169" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="Z169" s="6">
@@ -24162,11 +24023,10 @@
         <v>49</v>
       </c>
       <c r="AN169">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO169">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -24226,7 +24086,7 @@
         <v>1.5</v>
       </c>
       <c r="S170" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="T170" s="3">
@@ -24244,7 +24104,7 @@
         <v>225</v>
       </c>
       <c r="Y170" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="Z170" s="6">
@@ -24278,11 +24138,10 @@
         <v>49</v>
       </c>
       <c r="AN170">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO170">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -24342,7 +24201,7 @@
         <v>1.5</v>
       </c>
       <c r="S171" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T171" s="3">
@@ -24360,7 +24219,7 @@
         <v>180</v>
       </c>
       <c r="Y171" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Z171" s="6">
@@ -24397,11 +24256,10 @@
         <v>49</v>
       </c>
       <c r="AN171">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO171">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -24461,7 +24319,7 @@
         <v>1.5</v>
       </c>
       <c r="S172" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="T172" s="3">
@@ -24479,7 +24337,7 @@
         <v>198</v>
       </c>
       <c r="Y172" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>6.6000000000000005</v>
       </c>
       <c r="Z172" s="6">
@@ -24516,11 +24374,10 @@
         <v>49</v>
       </c>
       <c r="AN172">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO172">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -24580,7 +24437,7 @@
         <v>1.5</v>
       </c>
       <c r="S173" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>13.600000000000001</v>
       </c>
       <c r="T173" s="3">
@@ -24598,7 +24455,7 @@
         <v>476</v>
       </c>
       <c r="Y173" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>13.600000000000001</v>
       </c>
       <c r="Z173" s="6">
@@ -24635,11 +24492,10 @@
         <v>49</v>
       </c>
       <c r="AN173">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO173">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -24699,7 +24555,7 @@
         <v>1.5</v>
       </c>
       <c r="S174" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T174" s="3">
@@ -24717,7 +24573,7 @@
         <v>180</v>
       </c>
       <c r="Y174" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="Z174" s="6">
@@ -24754,11 +24610,10 @@
         <v>49</v>
       </c>
       <c r="AN174">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO174">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -24818,7 +24673,7 @@
         <v>1.5</v>
       </c>
       <c r="S175" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>4.2</v>
       </c>
       <c r="T175" s="3">
@@ -24836,7 +24691,7 @@
         <v>126</v>
       </c>
       <c r="Y175" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>4.2</v>
       </c>
       <c r="Z175" s="6">
@@ -24873,11 +24728,10 @@
         <v>49</v>
       </c>
       <c r="AN175">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO175">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -24934,7 +24788,7 @@
         <v>2.5</v>
       </c>
       <c r="S176" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>15.600000000000001</v>
       </c>
       <c r="T176" s="3">
@@ -24948,7 +24802,7 @@
         <v>1110</v>
       </c>
       <c r="X176" s="3">
-        <f t="shared" ref="X176:X188" si="16">1*O176</f>
+        <f t="shared" ref="X176:X188" si="13">1*O176</f>
         <v>78</v>
       </c>
       <c r="Y176" s="3">
@@ -24995,11 +24849,10 @@
         <v>49</v>
       </c>
       <c r="AN176">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO176">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -25059,7 +24912,7 @@
         <v>2.7</v>
       </c>
       <c r="S177" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>8.6</v>
       </c>
       <c r="T177" s="3">
@@ -25073,11 +24926,11 @@
         <v>743</v>
       </c>
       <c r="X177" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="Y177" s="3">
-        <f t="shared" ref="Y177:Y188" si="17">0.2*O177</f>
+        <f t="shared" ref="Y177:Y188" si="14">0.2*O177</f>
         <v>8.6</v>
       </c>
       <c r="Z177" s="6" t="s">
@@ -25114,11 +24967,10 @@
         <v>49</v>
       </c>
       <c r="AN177">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO177">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -25178,7 +25030,7 @@
         <v>2.7</v>
       </c>
       <c r="S178" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="T178" s="3">
@@ -25192,11 +25044,11 @@
         <v>552</v>
       </c>
       <c r="X178" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="Y178" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="Z178" s="6" t="s">
@@ -25233,11 +25085,10 @@
         <v>49</v>
       </c>
       <c r="AN178">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO178">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -25297,27 +25148,27 @@
         <v>2.7</v>
       </c>
       <c r="S179" s="3">
+        <f t="shared" si="11"/>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="T179" s="3">
+        <f t="shared" ref="T179:T185" si="15">2*O179</f>
+        <v>102</v>
+      </c>
+      <c r="U179" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V179" s="3">
+        <v>800</v>
+      </c>
+      <c r="X179" s="3">
+        <f t="shared" si="13"/>
+        <v>51</v>
+      </c>
+      <c r="Y179" s="3">
         <f t="shared" si="14"/>
         <v>10.200000000000001</v>
       </c>
-      <c r="T179" s="3">
-        <f t="shared" ref="T179:T185" si="18">2*O179</f>
-        <v>102</v>
-      </c>
-      <c r="U179" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V179" s="3">
-        <v>800</v>
-      </c>
-      <c r="X179" s="3">
-        <f t="shared" si="16"/>
-        <v>51</v>
-      </c>
-      <c r="Y179" s="3">
-        <f t="shared" si="17"/>
-        <v>10.200000000000001</v>
-      </c>
       <c r="Z179" s="6" t="s">
         <v>49</v>
       </c>
@@ -25352,11 +25203,10 @@
         <v>49</v>
       </c>
       <c r="AN179">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO179">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -25416,27 +25266,27 @@
         <v>2.7</v>
       </c>
       <c r="S180" s="3">
+        <f t="shared" si="11"/>
+        <v>10.4</v>
+      </c>
+      <c r="T180" s="3">
+        <f t="shared" si="15"/>
+        <v>104</v>
+      </c>
+      <c r="U180" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V180" s="3">
+        <v>740</v>
+      </c>
+      <c r="X180" s="3">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="Y180" s="3">
         <f t="shared" si="14"/>
         <v>10.4</v>
       </c>
-      <c r="T180" s="3">
-        <f t="shared" si="18"/>
-        <v>104</v>
-      </c>
-      <c r="U180" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V180" s="3">
-        <v>740</v>
-      </c>
-      <c r="X180" s="3">
-        <f t="shared" si="16"/>
-        <v>52</v>
-      </c>
-      <c r="Y180" s="3">
-        <f t="shared" si="17"/>
-        <v>10.4</v>
-      </c>
       <c r="Z180" s="6" t="s">
         <v>49</v>
       </c>
@@ -25471,11 +25321,10 @@
         <v>49</v>
       </c>
       <c r="AN180">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO180">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -25535,27 +25384,27 @@
         <v>2.7</v>
       </c>
       <c r="S181" s="3">
+        <f t="shared" si="11"/>
+        <v>8.4</v>
+      </c>
+      <c r="T181" s="3">
+        <f t="shared" si="15"/>
+        <v>84</v>
+      </c>
+      <c r="U181" s="6">
+        <v>1</v>
+      </c>
+      <c r="V181" s="3">
+        <v>740</v>
+      </c>
+      <c r="X181" s="3">
+        <f t="shared" si="13"/>
+        <v>42</v>
+      </c>
+      <c r="Y181" s="3">
         <f t="shared" si="14"/>
         <v>8.4</v>
       </c>
-      <c r="T181" s="3">
-        <f t="shared" si="18"/>
-        <v>84</v>
-      </c>
-      <c r="U181" s="6">
-        <v>1</v>
-      </c>
-      <c r="V181" s="3">
-        <v>740</v>
-      </c>
-      <c r="X181" s="3">
-        <f t="shared" si="16"/>
-        <v>42</v>
-      </c>
-      <c r="Y181" s="3">
-        <f t="shared" si="17"/>
-        <v>8.4</v>
-      </c>
       <c r="Z181" s="6">
         <v>1</v>
       </c>
@@ -25590,11 +25439,10 @@
         <v>49</v>
       </c>
       <c r="AN181">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO181">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -25654,27 +25502,27 @@
         <v>2.7</v>
       </c>
       <c r="S182" s="3">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="T182" s="3">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+      <c r="U182" s="6">
+        <v>1</v>
+      </c>
+      <c r="V182" s="3">
+        <v>880</v>
+      </c>
+      <c r="X182" s="3">
+        <f t="shared" si="13"/>
+        <v>50</v>
+      </c>
+      <c r="Y182" s="3">
         <f t="shared" si="14"/>
         <v>10</v>
       </c>
-      <c r="T182" s="3">
-        <f t="shared" si="18"/>
-        <v>100</v>
-      </c>
-      <c r="U182" s="6">
-        <v>1</v>
-      </c>
-      <c r="V182" s="3">
-        <v>880</v>
-      </c>
-      <c r="X182" s="3">
-        <f t="shared" si="16"/>
-        <v>50</v>
-      </c>
-      <c r="Y182" s="3">
-        <f t="shared" si="17"/>
-        <v>10</v>
-      </c>
       <c r="Z182" s="6">
         <v>1</v>
       </c>
@@ -25709,11 +25557,10 @@
         <v>49</v>
       </c>
       <c r="AN182">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO182">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -25773,27 +25620,27 @@
         <v>2.7</v>
       </c>
       <c r="S183" s="3">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="T183" s="3">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+      <c r="U183" s="6">
+        <v>1</v>
+      </c>
+      <c r="V183" s="3">
+        <v>870</v>
+      </c>
+      <c r="X183" s="3">
+        <f t="shared" si="13"/>
+        <v>60</v>
+      </c>
+      <c r="Y183" s="3">
         <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="T183" s="3">
-        <f t="shared" si="18"/>
-        <v>120</v>
-      </c>
-      <c r="U183" s="6">
-        <v>1</v>
-      </c>
-      <c r="V183" s="3">
-        <v>870</v>
-      </c>
-      <c r="X183" s="3">
-        <f t="shared" si="16"/>
-        <v>60</v>
-      </c>
-      <c r="Y183" s="3">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
       <c r="Z183" s="6">
         <v>1</v>
       </c>
@@ -25828,11 +25675,10 @@
         <v>49</v>
       </c>
       <c r="AN183">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO183">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -25892,27 +25738,27 @@
         <v>2.7</v>
       </c>
       <c r="S184" s="3">
+        <f t="shared" si="11"/>
+        <v>14.4</v>
+      </c>
+      <c r="T184" s="3">
+        <f t="shared" si="15"/>
+        <v>144</v>
+      </c>
+      <c r="U184" s="6">
+        <v>1</v>
+      </c>
+      <c r="V184" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X184" s="3">
+        <f t="shared" si="13"/>
+        <v>72</v>
+      </c>
+      <c r="Y184" s="3">
         <f t="shared" si="14"/>
         <v>14.4</v>
       </c>
-      <c r="T184" s="3">
-        <f t="shared" si="18"/>
-        <v>144</v>
-      </c>
-      <c r="U184" s="6">
-        <v>1</v>
-      </c>
-      <c r="V184" s="3">
-        <v>1300</v>
-      </c>
-      <c r="X184" s="3">
-        <f t="shared" si="16"/>
-        <v>72</v>
-      </c>
-      <c r="Y184" s="3">
-        <f t="shared" si="17"/>
-        <v>14.4</v>
-      </c>
       <c r="Z184" s="6">
         <v>1</v>
       </c>
@@ -25947,11 +25793,10 @@
         <v>49</v>
       </c>
       <c r="AN184">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO184">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -26011,27 +25856,27 @@
         <v>2.7</v>
       </c>
       <c r="S185" s="3">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="T185" s="3">
+        <f t="shared" si="15"/>
+        <v>160</v>
+      </c>
+      <c r="U185" s="6">
+        <v>1</v>
+      </c>
+      <c r="V185" s="3">
+        <v>1320</v>
+      </c>
+      <c r="X185" s="3">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="Y185" s="3">
         <f t="shared" si="14"/>
         <v>16</v>
       </c>
-      <c r="T185" s="3">
-        <f t="shared" si="18"/>
-        <v>160</v>
-      </c>
-      <c r="U185" s="6">
-        <v>1</v>
-      </c>
-      <c r="V185" s="3">
-        <v>1320</v>
-      </c>
-      <c r="X185" s="3">
-        <f t="shared" si="16"/>
-        <v>80</v>
-      </c>
-      <c r="Y185" s="3">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
       <c r="Z185" s="6">
         <v>1</v>
       </c>
@@ -26066,11 +25911,10 @@
         <v>49</v>
       </c>
       <c r="AN185">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO185">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -26130,7 +25974,7 @@
         <v>2</v>
       </c>
       <c r="S186" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="T186" s="3">
@@ -26144,11 +25988,11 @@
         <v>1380</v>
       </c>
       <c r="X186" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="Y186" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="Z186" s="6">
@@ -26185,11 +26029,10 @@
         <v>49</v>
       </c>
       <c r="AN186">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO186">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -26249,7 +26092,7 @@
         <v>2</v>
       </c>
       <c r="S187" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>11.200000000000001</v>
       </c>
       <c r="T187" s="3">
@@ -26263,11 +26106,11 @@
         <v>1450</v>
       </c>
       <c r="X187" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="Y187" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>11.200000000000001</v>
       </c>
       <c r="Z187" s="6">
@@ -26304,11 +26147,10 @@
         <v>49</v>
       </c>
       <c r="AN187">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO187">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -26368,7 +26210,7 @@
         <v>2</v>
       </c>
       <c r="S188" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="T188" s="3">
@@ -26382,11 +26224,11 @@
         <v>1880</v>
       </c>
       <c r="X188" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="Y188" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="Z188" s="6">
@@ -26423,11 +26265,10 @@
         <v>49</v>
       </c>
       <c r="AN188">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="AO188">
-        <f t="shared" si="13"/>
         <v>60.79</v>
       </c>
     </row>
@@ -26541,11 +26382,10 @@
         <v>1</v>
       </c>
       <c r="AN189">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AO189">
-        <f t="shared" si="13"/>
         <v>64.69</v>
       </c>
     </row>
@@ -26659,11 +26499,10 @@
         <v>0.8</v>
       </c>
       <c r="AN190">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO190">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -26777,11 +26616,10 @@
         <v>0.8</v>
       </c>
       <c r="AN191">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO191">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -26895,11 +26733,10 @@
         <v>0.8</v>
       </c>
       <c r="AN192">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO192">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27013,11 +26850,10 @@
         <v>0.8</v>
       </c>
       <c r="AN193">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO193">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27131,11 +26967,10 @@
         <v>0.8</v>
       </c>
       <c r="AN194">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AO194">
-        <f t="shared" si="13"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27249,11 +27084,10 @@
         <v>0.8</v>
       </c>
       <c r="AN195">
-        <f t="shared" ref="AN195:AN258" si="19">IF(G195="Pouch",1,IF(G195="Prismatic",2,IF(G195="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN195:AN258" si="16">IF(G195="Pouch",1,IF(G195="Prismatic",2,IF(G195="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO195">
-        <f t="shared" ref="AO195:AO258" si="20">IF(AN195=1, 60.25, IF(AN195=2, 60.79, IF(AN195=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -27367,11 +27201,10 @@
         <v>0.8</v>
       </c>
       <c r="AN196">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO196">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27485,11 +27318,10 @@
         <v>0.8</v>
       </c>
       <c r="AN197">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO197">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27603,11 +27435,10 @@
         <v>0.8</v>
       </c>
       <c r="AN198">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO198">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27721,11 +27552,10 @@
         <v>0.8</v>
       </c>
       <c r="AN199">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO199">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -27833,11 +27663,10 @@
         <v>0.8</v>
       </c>
       <c r="AN200">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO200">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -27945,11 +27774,10 @@
         <v>0.8</v>
       </c>
       <c r="AN201">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO201">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -28057,11 +27885,10 @@
         <v>0.9</v>
       </c>
       <c r="AN202">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO202">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28172,11 +27999,10 @@
         <v>0.9</v>
       </c>
       <c r="AN203">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO203">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28287,11 +28113,10 @@
         <v>49</v>
       </c>
       <c r="AN204">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO204">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28402,11 +28227,10 @@
         <v>49</v>
       </c>
       <c r="AN205">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO205">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28517,11 +28341,10 @@
         <v>49</v>
       </c>
       <c r="AN206">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO206">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28632,11 +28455,10 @@
         <v>49</v>
       </c>
       <c r="AN207">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO207">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28747,11 +28569,10 @@
         <v>49</v>
       </c>
       <c r="AN208">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO208">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28862,11 +28683,10 @@
         <v>49</v>
       </c>
       <c r="AN209">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO209">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -28977,11 +28797,10 @@
         <v>49</v>
       </c>
       <c r="AN210">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO210">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -29092,11 +28911,10 @@
         <v>49</v>
       </c>
       <c r="AN211">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO211">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -29210,11 +29028,10 @@
         <v>1</v>
       </c>
       <c r="AN212">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO212">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29328,11 +29145,10 @@
         <v>1</v>
       </c>
       <c r="AN213">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO213">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29446,11 +29262,10 @@
         <v>1</v>
       </c>
       <c r="AN214">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO214">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29558,11 +29373,10 @@
         <v>1</v>
       </c>
       <c r="AN215">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO215">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29676,11 +29490,10 @@
         <v>1</v>
       </c>
       <c r="AN216">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO216">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29794,11 +29607,10 @@
         <v>1</v>
       </c>
       <c r="AN217">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO217">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -29912,11 +29724,10 @@
         <v>1</v>
       </c>
       <c r="AN218">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO218">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -30024,11 +29835,10 @@
         <v>49</v>
       </c>
       <c r="AN219">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO219">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -30142,11 +29952,10 @@
         <v>1</v>
       </c>
       <c r="AN220">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO220">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -30260,11 +30069,10 @@
         <v>1</v>
       </c>
       <c r="AN221">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO221">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -30375,11 +30183,10 @@
         <v>49</v>
       </c>
       <c r="AN222">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO222">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -30490,11 +30297,10 @@
         <v>49</v>
       </c>
       <c r="AN223">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO223">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -30605,11 +30411,10 @@
         <v>49</v>
       </c>
       <c r="AN224">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO224">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -30720,11 +30525,10 @@
         <v>49</v>
       </c>
       <c r="AN225">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO225">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -30832,11 +30636,10 @@
         <v>49</v>
       </c>
       <c r="AN226">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO226">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -30947,11 +30750,10 @@
         <v>49</v>
       </c>
       <c r="AN227">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO227">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31059,11 +30861,10 @@
         <v>49</v>
       </c>
       <c r="AN228">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO228">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31174,11 +30975,10 @@
         <v>49</v>
       </c>
       <c r="AN229">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO229">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31289,11 +31089,10 @@
         <v>49</v>
       </c>
       <c r="AN230">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO230">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31404,11 +31203,10 @@
         <v>49</v>
       </c>
       <c r="AN231">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO231">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31519,11 +31317,10 @@
         <v>49</v>
       </c>
       <c r="AN232">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO232">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -31631,11 +31428,10 @@
         <v>1</v>
       </c>
       <c r="AN233">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO233">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -31746,11 +31542,10 @@
         <v>49</v>
       </c>
       <c r="AN234">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO234">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -31855,11 +31650,10 @@
         <v>54</v>
       </c>
       <c r="AN235">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO235">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -31967,11 +31761,10 @@
         <v>54</v>
       </c>
       <c r="AN236">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO236">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -32085,11 +31878,10 @@
         <v>1</v>
       </c>
       <c r="AN237">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO237">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -32206,11 +31998,10 @@
         <v>1</v>
       </c>
       <c r="AN238">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO238">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -32327,11 +32118,10 @@
         <v>1</v>
       </c>
       <c r="AN239">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="AO239">
-        <f t="shared" si="20"/>
         <v>60.79</v>
       </c>
     </row>
@@ -32445,11 +32235,10 @@
         <v>1</v>
       </c>
       <c r="AN240">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO240">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -32563,11 +32352,10 @@
         <v>49</v>
       </c>
       <c r="AN241">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO241">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -32681,11 +32469,10 @@
         <v>49</v>
       </c>
       <c r="AN242">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="AO242">
-        <f t="shared" si="20"/>
         <v>64.69</v>
       </c>
     </row>
@@ -32799,11 +32586,10 @@
         <v>49</v>
       </c>
       <c r="AN243">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO243">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -32920,11 +32706,10 @@
         <v>49</v>
       </c>
       <c r="AN244">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO244">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33041,11 +32826,10 @@
         <v>49</v>
       </c>
       <c r="AN245">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO245">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33162,11 +32946,10 @@
         <v>49</v>
       </c>
       <c r="AN246">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO246">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33283,11 +33066,10 @@
         <v>49</v>
       </c>
       <c r="AN247">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO247">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33404,11 +33186,10 @@
         <v>49</v>
       </c>
       <c r="AN248">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO248">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33522,11 +33303,10 @@
         <v>49</v>
       </c>
       <c r="AN249">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO249">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33640,11 +33420,10 @@
         <v>49</v>
       </c>
       <c r="AN250">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO250">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33761,11 +33540,10 @@
         <v>49</v>
       </c>
       <c r="AN251">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO251">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -33882,11 +33660,10 @@
         <v>49</v>
       </c>
       <c r="AN252">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO252">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34003,11 +33780,10 @@
         <v>49</v>
       </c>
       <c r="AN253">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO253">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34124,11 +33900,10 @@
         <v>49</v>
       </c>
       <c r="AN254">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO254">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34245,11 +34020,10 @@
         <v>49</v>
       </c>
       <c r="AN255">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO255">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34363,11 +34137,10 @@
         <v>49</v>
       </c>
       <c r="AN256">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO256">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34484,11 +34257,10 @@
         <v>49</v>
       </c>
       <c r="AN257">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO257">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34602,11 +34374,10 @@
         <v>49</v>
       </c>
       <c r="AN258">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AO258">
-        <f t="shared" si="20"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34720,11 +34491,10 @@
         <v>49</v>
       </c>
       <c r="AN259">
-        <f t="shared" ref="AN259:AN322" si="21">IF(G259="Pouch",1,IF(G259="Prismatic",2,IF(G259="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN259:AN322" si="17">IF(G259="Pouch",1,IF(G259="Prismatic",2,IF(G259="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO259">
-        <f t="shared" ref="AO259:AO322" si="22">IF(AN259=1, 60.25, IF(AN259=2, 60.79, IF(AN259=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -34841,11 +34611,10 @@
         <v>49</v>
       </c>
       <c r="AN260">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO260">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -34962,11 +34731,10 @@
         <v>49</v>
       </c>
       <c r="AN261">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO261">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35077,11 +34845,10 @@
         <v>49</v>
       </c>
       <c r="AN262">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO262">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35192,11 +34959,10 @@
         <v>49</v>
       </c>
       <c r="AN263">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO263">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35307,11 +35073,10 @@
         <v>49</v>
       </c>
       <c r="AN264">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO264">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35425,11 +35190,10 @@
         <v>0.8</v>
       </c>
       <c r="AN265">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO265">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35543,11 +35307,10 @@
         <v>0.8</v>
       </c>
       <c r="AN266">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO266">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35661,11 +35424,10 @@
         <v>0.8</v>
       </c>
       <c r="AN267">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO267">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35779,11 +35541,10 @@
         <v>0.8</v>
       </c>
       <c r="AN268">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO268">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -35897,11 +35658,10 @@
         <v>0.8</v>
       </c>
       <c r="AN269">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO269">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -36015,11 +35775,10 @@
         <v>0.8</v>
       </c>
       <c r="AN270">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO270">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -36133,11 +35892,10 @@
         <v>0.8</v>
       </c>
       <c r="AN271">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO271">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -36251,11 +36009,10 @@
         <v>0.8</v>
       </c>
       <c r="AN272">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO272">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -36369,11 +36126,10 @@
         <v>49</v>
       </c>
       <c r="AN273">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO273">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -36487,11 +36243,10 @@
         <v>49</v>
       </c>
       <c r="AN274">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO274">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -36605,11 +36360,10 @@
         <v>1</v>
       </c>
       <c r="AN275">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO275">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -36723,11 +36477,10 @@
         <v>0.8</v>
       </c>
       <c r="AN276">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO276">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -36838,11 +36591,10 @@
         <v>49</v>
       </c>
       <c r="AN277">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO277">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -36956,11 +36708,10 @@
         <v>49</v>
       </c>
       <c r="AN278">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO278">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -37074,11 +36825,10 @@
         <v>1</v>
       </c>
       <c r="AN279">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO279">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -37189,11 +36939,10 @@
         <v>0.7</v>
       </c>
       <c r="AN280">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO280">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -37307,11 +37056,10 @@
         <v>0.8</v>
       </c>
       <c r="AN281">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO281">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -37425,11 +37173,10 @@
         <v>0.8</v>
       </c>
       <c r="AN282">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO282">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -37543,11 +37290,10 @@
         <v>0.8</v>
       </c>
       <c r="AN283">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO283">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -37661,11 +37407,10 @@
         <v>0.8</v>
       </c>
       <c r="AN284">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO284">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -37776,11 +37521,10 @@
         <v>0.8</v>
       </c>
       <c r="AN285">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO285">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -37894,11 +37638,10 @@
         <v>0.8</v>
       </c>
       <c r="AN286">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO286">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38012,11 +37755,10 @@
         <v>0.8</v>
       </c>
       <c r="AN287">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO287">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38130,11 +37872,10 @@
         <v>0.8</v>
       </c>
       <c r="AN288">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO288">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38245,11 +37986,10 @@
         <v>0.8</v>
       </c>
       <c r="AN289">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO289">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38363,11 +38103,10 @@
         <v>0.8</v>
       </c>
       <c r="AN290">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO290">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38481,11 +38220,10 @@
         <v>0.8</v>
       </c>
       <c r="AN291">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO291">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38599,11 +38337,10 @@
         <v>0.8</v>
       </c>
       <c r="AN292">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO292">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -38714,11 +38451,10 @@
         <v>49</v>
       </c>
       <c r="AN293">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO293">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -38832,11 +38568,10 @@
         <v>49</v>
       </c>
       <c r="AN294">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO294">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -38956,11 +38691,10 @@
         <v>49</v>
       </c>
       <c r="AN295">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO295">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -39071,11 +38805,10 @@
         <v>49</v>
       </c>
       <c r="AN296">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO296">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39186,11 +38919,10 @@
         <v>49</v>
       </c>
       <c r="AN297">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO297">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -39301,11 +39033,10 @@
         <v>49</v>
       </c>
       <c r="AN298">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO298">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39416,11 +39147,10 @@
         <v>49</v>
       </c>
       <c r="AN299">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO299">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39531,11 +39261,10 @@
         <v>49</v>
       </c>
       <c r="AN300">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO300">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39649,11 +39378,10 @@
         <v>49</v>
       </c>
       <c r="AN301">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO301">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39767,11 +39495,10 @@
         <v>49</v>
       </c>
       <c r="AN302">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO302">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -39885,11 +39612,10 @@
         <v>49</v>
       </c>
       <c r="AN303">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO303">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40006,11 +39732,10 @@
         <v>49</v>
       </c>
       <c r="AN304">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO304">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -40127,11 +39852,10 @@
         <v>49</v>
       </c>
       <c r="AN305">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO305">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -40245,11 +39969,10 @@
         <v>49</v>
       </c>
       <c r="AN306">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO306">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40365,11 +40088,10 @@
         <v>0.8</v>
       </c>
       <c r="AN307">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO307">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40485,11 +40207,10 @@
         <v>0.8</v>
       </c>
       <c r="AN308">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO308">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40603,11 +40324,10 @@
         <v>49</v>
       </c>
       <c r="AN309">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO309">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40721,11 +40441,10 @@
         <v>49</v>
       </c>
       <c r="AN310">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO310">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40839,11 +40558,10 @@
         <v>49</v>
       </c>
       <c r="AN311">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO311">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -40957,11 +40675,10 @@
         <v>49</v>
       </c>
       <c r="AN312">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO312">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -41075,11 +40792,10 @@
         <v>49</v>
       </c>
       <c r="AN313">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO313">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -41194,11 +40910,10 @@
         <v>1</v>
       </c>
       <c r="AN314">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO314">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -41315,11 +41030,10 @@
         <v>49</v>
       </c>
       <c r="AN315">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO315">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -41436,11 +41150,10 @@
         <v>49</v>
       </c>
       <c r="AN316">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="AO316">
-        <f t="shared" si="22"/>
         <v>60.79</v>
       </c>
     </row>
@@ -41554,11 +41267,10 @@
         <v>49</v>
       </c>
       <c r="AN317">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO317">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -41672,11 +41384,10 @@
         <v>1</v>
       </c>
       <c r="AN318">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO318">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -41793,11 +41504,10 @@
         <v>49</v>
       </c>
       <c r="AN319">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO319">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -41911,11 +41621,10 @@
         <v>1</v>
       </c>
       <c r="AN320">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO320">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42029,11 +41738,10 @@
         <v>1</v>
       </c>
       <c r="AN321">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="AO321">
-        <f t="shared" si="22"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42150,11 +41858,10 @@
         <v>49</v>
       </c>
       <c r="AN322">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="AO322">
-        <f t="shared" si="22"/>
         <v>60.25</v>
       </c>
     </row>
@@ -42271,11 +41978,10 @@
         <v>49</v>
       </c>
       <c r="AN323">
-        <f t="shared" ref="AN323:AN348" si="23">IF(G323="Pouch",1,IF(G323="Prismatic",2,IF(G323="Cylindrical",3,"")))</f>
+        <f t="shared" ref="AN323:AN349" si="18">IF(G323="Pouch",1,IF(G323="Prismatic",2,IF(G323="Cylindrical",3,"")))</f>
         <v>1</v>
       </c>
       <c r="AO323">
-        <f t="shared" ref="AO323:AO386" si="24">IF(AN323=1, 60.25, IF(AN323=2, 60.79, IF(AN323=3, 64.69, 0)))</f>
         <v>60.25</v>
       </c>
     </row>
@@ -42383,11 +42089,10 @@
         <v>49</v>
       </c>
       <c r="AN324">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO324">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -42498,11 +42203,10 @@
         <v>49</v>
       </c>
       <c r="AN325">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO325">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42613,11 +42317,10 @@
         <v>49</v>
       </c>
       <c r="AN326">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO326">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42728,11 +42431,10 @@
         <v>49</v>
       </c>
       <c r="AN327">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO327">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42846,11 +42548,10 @@
         <v>49</v>
       </c>
       <c r="AN328">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO328">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -42961,11 +42662,10 @@
         <v>1</v>
       </c>
       <c r="AN329">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO329">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -43079,11 +42779,10 @@
         <v>1</v>
       </c>
       <c r="AN330">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO330">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -43194,11 +42893,10 @@
         <v>1</v>
       </c>
       <c r="AN331">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO331">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -43323,11 +43021,10 @@
         <v>49</v>
       </c>
       <c r="AN332">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO332">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -43444,11 +43141,10 @@
         <v>49</v>
       </c>
       <c r="AN333">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO333">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -43566,11 +43262,10 @@
         <v>49</v>
       </c>
       <c r="AN334">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO334">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -43684,11 +43379,10 @@
         <v>49</v>
       </c>
       <c r="AN335">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO335">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -43801,11 +43495,10 @@
         <v>49</v>
       </c>
       <c r="AN336" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO336">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -43916,11 +43609,10 @@
         <v>49</v>
       </c>
       <c r="AN337" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="AO337">
-        <f t="shared" si="24"/>
         <v>64.69</v>
       </c>
     </row>
@@ -44033,11 +43725,10 @@
         <v>49</v>
       </c>
       <c r="AN338" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO338">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -44150,11 +43841,10 @@
         <v>49</v>
       </c>
       <c r="AN339" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO339">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -44269,11 +43959,10 @@
         <v>49</v>
       </c>
       <c r="AN340" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO340">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -44390,11 +44079,10 @@
         <v>49</v>
       </c>
       <c r="AN341" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO341">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -44516,11 +44204,10 @@
         <v>0.9</v>
       </c>
       <c r="AN342" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="AO342">
-        <f t="shared" si="24"/>
         <v>60.25</v>
       </c>
     </row>
@@ -44629,18 +44316,17 @@
         <v>54</v>
       </c>
       <c r="AL343" s="6">
-        <f t="shared" ref="AL343:AL349" si="25">1/50</f>
+        <f t="shared" ref="AL343:AL349" si="19">1/50</f>
         <v>0.02</v>
       </c>
       <c r="AM343" s="54">
         <v>1</v>
       </c>
       <c r="AN343" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO343">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -44747,18 +44433,17 @@
         <v>54</v>
       </c>
       <c r="AL344" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM344" s="54">
         <v>1</v>
       </c>
       <c r="AN344" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO344">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -44867,18 +44552,17 @@
         <v>54</v>
       </c>
       <c r="AL345" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM345" s="54">
         <v>1</v>
       </c>
       <c r="AN345" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO345">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -44985,18 +44669,17 @@
         <v>54</v>
       </c>
       <c r="AL346" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM346" s="54">
         <v>1</v>
       </c>
       <c r="AN346" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO346">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -45105,18 +44788,17 @@
         <v>54</v>
       </c>
       <c r="AL347" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM347" s="54">
         <v>1</v>
       </c>
       <c r="AN347" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO347">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -45223,18 +44905,17 @@
         <v>54</v>
       </c>
       <c r="AL348" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM348" s="54">
         <v>1</v>
       </c>
       <c r="AN348" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO348">
-        <f t="shared" si="24"/>
         <v>60.79</v>
       </c>
     </row>
@@ -45341,54 +45022,47 @@
         <v>54</v>
       </c>
       <c r="AL349" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="19"/>
         <v>0.02</v>
       </c>
       <c r="AM349" s="54">
         <v>1</v>
       </c>
       <c r="AN349" s="39">
-        <f t="shared" ref="AN349" si="26">IF(G349="Pouch",1,IF(G349="Prismatic",2,IF(G349="Cylindrical",3,"")))</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="AO349">
-        <f t="shared" si="24"/>
-        <v>60.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:41" s="39" customFormat="1">
       <c r="AO350">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:41" s="39" customFormat="1">
       <c r="AO351">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:41" s="39" customFormat="1">
       <c r="AO352">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="353" spans="41:41" s="39" customFormat="1">
       <c r="AO353">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="354" spans="41:41" s="39" customFormat="1">
       <c r="AO354">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="41:41" s="39" customFormat="1">
       <c r="AO355">
-        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -76798,19 +76472,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="3" max="3" width="8.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="16" max="16" width="9.88671875" customWidth="1"/>
+    <col min="21" max="21" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="68" customFormat="1" ht="55.8" customHeight="1">
+    <row r="1" spans="1:22" s="68" customFormat="1" ht="55.8" customHeight="1">
       <c r="A1" s="68" t="s">
         <v>1133</v>
       </c>
@@ -76850,157 +76527,227 @@
       <c r="M1" s="68" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="68" t="s">
+        <v>1145</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>1146</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>1147</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>1148</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>1149</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>1151</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>1152</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="B2">
-        <v>360.5122103571706</v>
+        <v>505.53190396095812</v>
       </c>
       <c r="C2">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>91280.25</v>
+        <v>289296</v>
       </c>
       <c r="E2">
-        <v>309.58506224066389</v>
+        <v>447.20358633482772</v>
       </c>
       <c r="F2">
-        <v>50031.900000000009</v>
+        <v>86788.800000000003</v>
       </c>
       <c r="G2">
+        <v>127</v>
+      </c>
+      <c r="H2">
         <v>98</v>
       </c>
-      <c r="H2">
-        <v>47</v>
-      </c>
       <c r="I2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1233</v>
+      </c>
+      <c r="N2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O2">
+        <v>2.4</v>
+      </c>
+      <c r="P2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q2">
+        <v>64000</v>
+      </c>
+      <c r="R2">
+        <v>450.8</v>
+      </c>
+      <c r="S2">
+        <v>412</v>
+      </c>
+      <c r="T2">
+        <v>245</v>
+      </c>
+      <c r="U2">
+        <v>170000</v>
+      </c>
+      <c r="V2">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="B3">
+        <v>597.84783608114947</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>342216</v>
+      </c>
+      <c r="E3">
+        <v>447.92358063897461</v>
+      </c>
+      <c r="F3">
+        <v>78321.600000000006</v>
+      </c>
+      <c r="G3">
         <v>111</v>
       </c>
-      <c r="K2">
-        <v>48</v>
-      </c>
-      <c r="L2">
-        <v>15</v>
-      </c>
-      <c r="M2">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3">
-        <v>360.5122103571706</v>
-      </c>
-      <c r="C3">
-        <v>84</v>
-      </c>
-      <c r="D3">
-        <v>91280.25</v>
-      </c>
-      <c r="E3">
-        <v>309.58506224066389</v>
-      </c>
-      <c r="F3">
-        <v>50031.900000000009</v>
-      </c>
-      <c r="G3">
-        <v>98</v>
-      </c>
       <c r="H3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="J3">
+        <v>127</v>
+      </c>
+      <c r="K3">
+        <v>49</v>
+      </c>
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>1233</v>
+      </c>
+      <c r="N3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
+      </c>
+      <c r="P3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q3">
+        <v>64000</v>
+      </c>
+      <c r="R3">
+        <v>450.8</v>
+      </c>
+      <c r="S3">
+        <v>412</v>
+      </c>
+      <c r="T3">
+        <v>245</v>
+      </c>
+      <c r="U3">
+        <v>170000</v>
+      </c>
+      <c r="V3">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="B4">
+        <v>591.63307350660091</v>
+      </c>
+      <c r="C4">
+        <v>85.358208955223887</v>
+      </c>
+      <c r="D4">
+        <v>351759.24</v>
+      </c>
+      <c r="E4">
+        <v>448.10656504785987</v>
+      </c>
+      <c r="F4">
+        <v>83606.720399999991</v>
+      </c>
+      <c r="G4">
         <v>111</v>
       </c>
-      <c r="K3">
-        <v>48</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4">
-        <v>360.5122103571706</v>
-      </c>
-      <c r="C4">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>91280.25</v>
-      </c>
-      <c r="E4">
-        <v>309.58506224066389</v>
-      </c>
-      <c r="F4">
-        <v>50031.900000000009</v>
-      </c>
-      <c r="G4">
-        <v>98</v>
-      </c>
       <c r="H4">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="K4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5">
-        <v>360.5122103571706</v>
-      </c>
-      <c r="C5">
-        <v>84</v>
-      </c>
-      <c r="D5">
-        <v>91280.25</v>
-      </c>
-      <c r="E5">
-        <v>309.58506224066389</v>
-      </c>
-      <c r="F5">
-        <v>50031.900000000009</v>
-      </c>
-      <c r="G5">
-        <v>98</v>
-      </c>
-      <c r="H5">
-        <v>47</v>
-      </c>
-      <c r="I5">
-        <v>9</v>
-      </c>
-      <c r="J5">
-        <v>111</v>
-      </c>
-      <c r="K5">
-        <v>48</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
-      </c>
-      <c r="M5">
-        <v>1485</v>
+        <v>1233</v>
+      </c>
+      <c r="N4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O4">
+        <v>2.4</v>
+      </c>
+      <c r="P4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q4">
+        <v>80000</v>
+      </c>
+      <c r="R4">
+        <v>450.8</v>
+      </c>
+      <c r="S4">
+        <v>412</v>
+      </c>
+      <c r="T4">
+        <v>245</v>
+      </c>
+      <c r="U4">
+        <v>170000</v>
+      </c>
+      <c r="V4">
+        <v>77000</v>
       </c>
     </row>
   </sheetData>
